--- a/Demande.xlsx
+++ b/Demande.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torrs\Documents\GitHub\Dossier-Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79169EBD-029E-49E1-9C48-F5F0EDE287AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A88DE19-DEA5-45CE-9652-92B4700CA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2C3C7CA-1020-445D-8B0F-B248B60A8358}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>PRO BTP groupe</t>
   </si>
@@ -111,13 +111,142 @@
   </si>
   <si>
     <t>email + cv envoyé 10/09/2024</t>
+  </si>
+  <si>
+    <t>Refus?</t>
+  </si>
+  <si>
+    <t>refus 11/09/2024</t>
+  </si>
+  <si>
+    <t>Refus 10/09/2024</t>
+  </si>
+  <si>
+    <t>intégrateur de progiciels bancaires</t>
+  </si>
+  <si>
+    <t>Dassault systemes</t>
+  </si>
+  <si>
+    <t>Ingénieur Logiciel - 3DEXCITE</t>
+  </si>
+  <si>
+    <t>Développement d'une bibliothèque d'animations 3D</t>
+  </si>
+  <si>
+    <t>Ogmyos</t>
+  </si>
+  <si>
+    <t>Xegen</t>
+  </si>
+  <si>
+    <t>Futur Digital</t>
+  </si>
+  <si>
+    <t>Hippy</t>
+  </si>
+  <si>
+    <t>labonnealternance</t>
+  </si>
+  <si>
+    <t>DFT</t>
+  </si>
+  <si>
+    <t>Stilog IST</t>
+  </si>
+  <si>
+    <t>Soluce</t>
+  </si>
+  <si>
+    <t>IKIMO09</t>
+  </si>
+  <si>
+    <t>Soc service informatiq admr</t>
+  </si>
+  <si>
+    <t>neometsys</t>
+  </si>
+  <si>
+    <t>amaris</t>
+  </si>
+  <si>
+    <t>appy</t>
+  </si>
+  <si>
+    <t>arcesi</t>
+  </si>
+  <si>
+    <t>svetlana.di-chiara@arcesi-ea.com</t>
+  </si>
+  <si>
+    <t>refus 12/09/2024</t>
+  </si>
+  <si>
+    <t>Acoss</t>
+  </si>
+  <si>
+    <t>francois.hazard@acoss.fr</t>
+  </si>
+  <si>
+    <t>Contact donné par Parrain</t>
+  </si>
+  <si>
+    <t>MAIF</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>Crypteo</t>
+  </si>
+  <si>
+    <t>Sia12</t>
+  </si>
+  <si>
+    <t>Alternance ingénieur(e) étude et développement t .net 4.0 / .net core - collectivité territoriale</t>
+  </si>
+  <si>
+    <t>Offre transmise par AMIO</t>
+  </si>
+  <si>
+    <t> Développeur web et mobile</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Développeur .NET</t>
+  </si>
+  <si>
+    <t>1GENEI</t>
+  </si>
+  <si>
+    <t>Contact linkedin 27/09/2024</t>
+  </si>
+  <si>
+    <t>AKKODIS</t>
+  </si>
+  <si>
+    <t>AGEFIPH</t>
+  </si>
+  <si>
+    <t>INGENIEUR DEVELOPPEUR C# ,NET</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Arcesi</t>
+  </si>
+  <si>
+    <t>contact-paca@arcesi-ea.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +282,52 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF232558"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -185,6 +360,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,16 +707,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B301771B-73D6-446E-9AAD-3D45609E0EF8}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="41.140625" customWidth="1"/>
@@ -564,9 +752,6 @@
       <c r="D2" s="2">
         <v>45544</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -581,6 +766,9 @@
       <c r="D3" s="2">
         <v>45544</v>
       </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -595,6 +783,9 @@
       <c r="D4" s="2">
         <v>45544</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -609,6 +800,9 @@
       <c r="D5" s="2">
         <v>45544</v>
       </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -679,6 +873,9 @@
       <c r="D10" s="2">
         <v>45545</v>
       </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -693,6 +890,9 @@
       <c r="D11" s="2">
         <v>45545</v>
       </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -707,6 +907,9 @@
       <c r="D12" s="2">
         <v>45545</v>
       </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -721,8 +924,400 @@
       <c r="D13" s="2">
         <v>45545</v>
       </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45546</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45546</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45546</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45547</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45568</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>